--- a/PURCHASE REGISTER-20.xlsx
+++ b/PURCHASE REGISTER-20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sale July-20" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="SALE August-20" sheetId="3" r:id="rId14"/>
     <sheet name="Pur &amp; Sale Graph-20" sheetId="11" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Purchase August-20'!$A$2:$M$49</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -41,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -50,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY -5350 KG 
@@ -67,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -76,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-4225 KG 
@@ -93,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -102,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-2570 KG 
@@ -119,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -128,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-4300 KG 
@@ -155,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -164,7 +167,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 PCS 
@@ -181,7 +184,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -190,7 +193,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 PCS 
@@ -207,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -216,7 +219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 PCS 
@@ -233,7 +236,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -242,7 +245,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 PCS 
@@ -259,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -268,7 +271,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 8.30 MINUTES 
@@ -285,7 +288,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -294,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1120 KG 
@@ -311,7 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -320,7 +323,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1945 KG 
@@ -337,7 +340,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -346,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1120 KGS 
@@ -363,7 +366,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -372,7 +375,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 500 KG 
@@ -389,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -398,7 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1480 KG 
@@ -415,7 +418,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -424,7 +427,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 505 KGS 
@@ -441,7 +444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -450,7 +453,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 2 SET 
@@ -467,7 +470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -476,7 +479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 MONTH 
@@ -493,7 +496,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -502,7 +505,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 45 
@@ -519,7 +522,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -528,7 +531,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 20 PCS 
@@ -545,7 +548,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -554,7 +557,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1695 KGS 
@@ -571,7 +574,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -580,7 +583,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 580 KGS 
@@ -597,7 +600,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -606,7 +609,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1855 KGS 
@@ -623,7 +626,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -632,7 +635,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1895 KGS 
@@ -649,7 +652,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -658,7 +661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 920 KGS 
@@ -675,7 +678,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -684,7 +687,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 187 KGS 
@@ -701,7 +704,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -710,7 +713,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1970 KG 
@@ -727,7 +730,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -736,7 +739,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 740 KGS 
@@ -753,7 +756,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -762,7 +765,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 544 KGS 
@@ -779,7 +782,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -788,7 +791,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 60 PKT 
@@ -805,7 +808,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -814,7 +817,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 2 PCS 
@@ -831,7 +834,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -840,7 +843,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 20 PCS 
@@ -857,7 +860,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -866,7 +869,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 1 NOS 
@@ -883,7 +886,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -892,7 +895,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 2 
@@ -909,7 +912,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -918,7 +921,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 24 PCS 
@@ -935,7 +938,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -944,7 +947,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 30 KGS 
@@ -961,7 +964,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -970,7 +973,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 25 PCS 
@@ -987,7 +990,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -996,7 +999,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 100 PCS 
@@ -1013,7 +1016,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1022,7 +1025,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 20 PCS 
@@ -1039,7 +1042,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1048,7 +1051,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 10 PCS 
@@ -1065,7 +1068,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1074,7 +1077,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 10 PCS 
@@ -1091,7 +1094,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1100,7 +1103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 25 PAIR 
@@ -1117,7 +1120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1126,7 +1129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 677.30 MTR
@@ -1143,7 +1146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1152,7 +1155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 442 MTR 
@@ -1170,7 +1173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1179,7 +1182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 153.60 MTR 
@@ -1196,7 +1199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1205,7 +1208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 46 UNITS
@@ -1222,7 +1225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1231,7 +1234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 86.40 MTR
@@ -1248,7 +1251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1257,7 +1260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 32 UNITS
@@ -1274,7 +1277,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1283,7 +1286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1 NOS
@@ -1300,7 +1303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1309,7 +1312,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 25 PCS
@@ -1327,7 +1330,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1336,7 +1339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 25 PCS
@@ -1353,7 +1356,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1362,7 +1365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY -1495 KG 
@@ -1379,7 +1382,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1388,7 +1391,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 1200 KG
@@ -1406,7 +1409,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1415,7 +1418,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 640 KG
@@ -1432,7 +1435,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1441,7 +1444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY -26 KGS
@@ -1458,7 +1461,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1467,7 +1470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 10 PCS 
@@ -1484,7 +1487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1493,7 +1496,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 685 KG 
@@ -1510,7 +1513,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1519,7 +1522,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 1050 KG
@@ -1537,7 +1540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1546,7 +1549,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 2315 KG 
@@ -1563,7 +1566,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1572,7 +1575,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 575 KG 
@@ -1589,7 +1592,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1598,7 +1601,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 1 NOS
@@ -1615,7 +1618,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1624,7 +1627,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-900 KG
@@ -1641,7 +1644,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1650,7 +1653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 3000 KG
@@ -1667,7 +1670,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1676,7 +1679,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY 1380 KG
@@ -1693,7 +1696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1702,7 +1705,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-4 PCS 
@@ -1719,7 +1722,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1728,7 +1731,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY -4 PCS
@@ -1745,7 +1748,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1754,7 +1757,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY-25 PAIR
@@ -1771,7 +1774,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1780,7 +1783,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY -236 KG 
@@ -1924,7 +1927,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1933,7 +1936,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 5 PCS 
@@ -1950,7 +1953,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1959,7 +1962,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 80 LTR
@@ -1976,7 +1979,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>om:</t>
         </r>
@@ -1985,7 +1988,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 QTY - 50 LTR
@@ -3601,7 +3604,7 @@
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3688,19 +3691,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4016,7 +4006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4215,25 +4205,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="65753088"/>
-        <c:axId val="65754624"/>
+        <c:axId val="56509568"/>
+        <c:axId val="56511488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65753088"/>
+        <c:axId val="56509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65754624"/>
+        <c:crossAx val="56511488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65754624"/>
+        <c:axId val="56511488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4232,7 @@
         <c:numFmt formatCode="0.00_);\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="65753088"/>
+        <c:crossAx val="56509568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4254,7 +4244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4972,7 +4962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7853,10 +7843,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9861,7 +9851,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="48"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="41"/>
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
@@ -9973,19 +9963,19 @@
       <c r="M67" s="41"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3"/>
@@ -10572,22 +10562,11 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="3"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A2:M49">
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B1:C1"/>
@@ -15075,7 +15054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
